--- a/resultdf8.xlsx
+++ b/resultdf8.xlsx
@@ -385,7 +385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,81 @@
         <v>114</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>114</v>
+      </c>
+      <c r="G8" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>114</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>114</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>1194</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
